--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0576b3c131c1b4c7/Documentos No tocar JP/I ciclo 4 año/Practica Profesional/GIT_Practica_CIMPA/PRACTICA_CIMPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C0C18-0EEB-4060-949C-C64D1EE1A17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2F3C0C18-0EEB-4060-949C-C64D1EE1A17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23A69560-9ED7-4DE0-8759-8EB4FB68ECF2}"/>
   <bookViews>
-    <workbookView xWindow="15072" yWindow="696" windowWidth="15312" windowHeight="10620" xr2:uid="{9692C9CB-3850-42A8-9F27-7C97058FDBC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{9692C9CB-3850-42A8-9F27-7C97058FDBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +122,22 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,9 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -245,24 +258,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +598,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,336 +612,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
